--- a/Graph_AmazonCoBuyComputerDataset/DAI/DAI_result.xlsx
+++ b/Graph_AmazonCoBuyComputerDataset/DAI/DAI_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/Graph_AmazonCoBuyComputerDataset/DAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EF3DEE-1699-2948-A688-8FC4EAD32812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E535F7CB-5002-C944-93CA-EE99D02B8D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36520" yWindow="3440" windowWidth="28300" windowHeight="17360" xr2:uid="{C0CF3BDA-FE46-4E41-B9E5-E5F8044F262B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
   <si>
     <t>Graph-Amazon-default</t>
     <phoneticPr fontId="1"/>
@@ -432,6 +432,9 @@
   <si>
     <t>Comment</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- Feature engineering search space: [ClusterDist, ClusterTE, Interactions, NumToCatTE, Original, TruncSVDNum]</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BABABD-3832-0644-8EBB-FE3AEA52B7F6}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1012,7 +1015,7 @@
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="63">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="63">
       <c r="A1" s="23" t="s">
         <v>118</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1063,8 +1066,11 @@
       <c r="H2" s="2">
         <v>1.1342592592592593E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2030,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2738A874-68C4-0D4E-A3A7-44301466CB01}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
